--- a/3_Component_Results/INVINV/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -600,19 +600,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.449756788728183</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-0.7192494049449263</v>
       </c>
       <c r="D2">
-        <v>0.5525698666131162</v>
-      </c>
-      <c r="E2">
-        <v>-0.09176786380685965</v>
-      </c>
-      <c r="F2">
-        <v>0.7139974273926608</v>
+        <v>0.4362921806982092</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -620,25 +614,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-1.271819271558043</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.1594121484765254</v>
       </c>
       <c r="D3">
-        <v>0.437117395170977</v>
+        <v>0.4403455411096117</v>
       </c>
       <c r="E3">
-        <v>-0.2097110931616986</v>
-      </c>
-      <c r="F3">
-        <v>0.5895279860662025</v>
-      </c>
-      <c r="G3">
-        <v>0.1139222731272749</v>
-      </c>
-      <c r="H3">
-        <v>-0.1665745718308994</v>
+        <v>2.215631650619466</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -646,19 +631,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-0.2777052466944516</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.6154633794187413</v>
       </c>
       <c r="D4">
-        <v>0.7646458243753321</v>
-      </c>
-      <c r="E4">
-        <v>0.2191209094050982</v>
-      </c>
-      <c r="F4">
-        <v>-0.1353887737139613</v>
+        <v>2.246817448736404</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -666,25 +645,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.1491824449565908</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.914147763191654</v>
       </c>
       <c r="D5">
-        <v>-0.4680584592587112</v>
+        <v>1.167859517124308</v>
       </c>
       <c r="E5">
-        <v>0.04030479956096571</v>
-      </c>
-      <c r="F5">
-        <v>0.6269943968969203</v>
-      </c>
-      <c r="G5">
-        <v>0.3527877238930384</v>
-      </c>
-      <c r="H5">
-        <v>-0.4366591282222051</v>
+        <v>-0.2366591282222051</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -692,19 +662,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2.382206222450365</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1.051933765946012</v>
       </c>
       <c r="D6">
-        <v>0.5110686457186242</v>
-      </c>
-      <c r="E6">
-        <v>0.2176464141933362</v>
-      </c>
-      <c r="F6">
-        <v>-0.3927936968363893</v>
+        <v>-0.1927936968363893</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,25 +676,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.5408651202273873</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-0.2818501944989162</v>
       </c>
       <c r="D7">
-        <v>-0.4818501944989162</v>
+        <v>0.5876390376955182</v>
       </c>
       <c r="E7">
-        <v>0.1084761866134877</v>
-      </c>
-      <c r="F7">
-        <v>0.08763903769551813</v>
-      </c>
-      <c r="G7">
-        <v>0.1841613977066379</v>
-      </c>
-      <c r="H7">
-        <v>0.286319785985172</v>
+        <v>0.486319785985172</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,19 +693,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>-0.1</v>
-      </c>
-      <c r="E8">
-        <v>-0.02329853759122306</v>
-      </c>
-      <c r="F8">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,25 +707,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>-0.1</v>
-      </c>
-      <c r="F9">
-        <v>0.1</v>
-      </c>
-      <c r="G9">
-        <v>0.1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,19 +724,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
-      </c>
-      <c r="E10">
-        <v>-0.1</v>
-      </c>
-      <c r="F10">
-        <v>-0.3</v>
+        <v>0.09999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,25 +738,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E11">
-        <v>0.1</v>
-      </c>
-      <c r="F11">
-        <v>-0.2</v>
-      </c>
-      <c r="G11">
         <v>0.3</v>
-      </c>
-      <c r="H11">
-        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,19 +755,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>-0.2</v>
-      </c>
-      <c r="E12">
-        <v>0.3</v>
-      </c>
-      <c r="F12">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,25 +769,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D13">
-        <v>0.2</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="E13">
         <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0.02768831412243042</v>
-      </c>
-      <c r="G13">
-        <v>0.06367835427788604</v>
-      </c>
-      <c r="H13">
-        <v>0.01495703859661922</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -876,19 +786,13 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="C14">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="D14">
         <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0.02768831412243042</v>
-      </c>
-      <c r="E14">
-        <v>0.06367835427788604</v>
-      </c>
-      <c r="F14">
-        <v>0.01495703859661922</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -896,25 +800,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.6276883141224305</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.05315388771215254</v>
       </c>
       <c r="D15">
-        <v>-0.03819684911553332</v>
+        <v>-0.3731887158325607</v>
       </c>
       <c r="E15">
-        <v>0.02276202197370622</v>
-      </c>
-      <c r="F15">
-        <v>0.04482242762081672</v>
-      </c>
-      <c r="G15">
-        <v>-0.08312359405642944</v>
-      </c>
-      <c r="H15">
-        <v>-0.0005291012788569902</v>
+        <v>0.2771469842561752</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -922,19 +817,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>-0.01495703859661922</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-0.4031430069794588</v>
       </c>
       <c r="D16">
-        <v>0.01486813647391864</v>
-      </c>
-      <c r="E16">
-        <v>-0.05247156604230859</v>
-      </c>
-      <c r="F16">
-        <v>0.02999500446314721</v>
+        <v>0.3076710899981794</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -942,25 +831,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.4180111434533774</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.1980322256704707</v>
       </c>
       <c r="D17">
-        <v>-0.07964385986456152</v>
+        <v>-0.08372010034262449</v>
       </c>
       <c r="E17">
-        <v>0.01788007183746736</v>
-      </c>
-      <c r="F17">
-        <v>0.009311135168159117</v>
-      </c>
-      <c r="G17">
-        <v>0.1035849471924037</v>
-      </c>
-      <c r="H17">
-        <v>0.07424550673149295</v>
+        <v>0.03808599403574435</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -968,31 +848,19 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.2776760855350322</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.1963071042561338</v>
       </c>
       <c r="D18">
-        <v>-0.1032758687453502</v>
+        <v>-0.03047052651039523</v>
       </c>
       <c r="E18">
-        <v>0.0006756482776618111</v>
+        <v>-0.4183496785417583</v>
       </c>
       <c r="F18">
-        <v>0.005688986185353372</v>
-      </c>
-      <c r="G18">
-        <v>-0.008466882631958828</v>
-      </c>
-      <c r="H18">
-        <v>-0.02301974683106689</v>
-      </c>
-      <c r="I18">
-        <v>-0.05576963827620234</v>
-      </c>
-      <c r="J18">
-        <v>-0.03842187562342117</v>
+        <v>-0.1791466588207064</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1000,25 +868,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>-0.0930312355107836</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>-0.04137894554115303</v>
       </c>
       <c r="D19">
-        <v>-0.00521943284540443</v>
+        <v>-0.3445743371771642</v>
       </c>
       <c r="E19">
-        <v>0.03815691497547917</v>
-      </c>
-      <c r="F19">
-        <v>0.05075559453352721</v>
-      </c>
-      <c r="G19">
-        <v>-0.006363755996427613</v>
-      </c>
-      <c r="H19">
-        <v>-0.02138720882889283</v>
+        <v>-0.162111992026178</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1026,31 +885,25 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>-0.0361595126957486</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>-0.4208332754960262</v>
       </c>
       <c r="D20">
-        <v>-0.02550334378533476</v>
+        <v>-0.1912883860639721</v>
       </c>
       <c r="E20">
-        <v>-0.0728451143942751</v>
+        <v>-0.3461168299595988</v>
       </c>
       <c r="F20">
-        <v>-0.05056360286668687</v>
+        <v>0.07881436602961701</v>
       </c>
       <c r="G20">
-        <v>-0.08673150507372991</v>
+        <v>0.0461588320391899</v>
       </c>
       <c r="H20">
-        <v>-0.1048190162321003</v>
-      </c>
-      <c r="I20">
-        <v>0.1307016706603459</v>
-      </c>
-      <c r="J20">
-        <v>0.3726296486925202</v>
+        <v>-0.2273703513074798</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1058,25 +911,22 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>-0.3953299317106914</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-0.1203303248603388</v>
       </c>
       <c r="D21">
-        <v>0.02039445833694634</v>
+        <v>-0.3085002376367351</v>
       </c>
       <c r="E21">
-        <v>-0.04911491275086621</v>
+        <v>0.1253253215152416</v>
       </c>
       <c r="F21">
-        <v>-0.05830806074647573</v>
+        <v>0.1004531641949189</v>
       </c>
       <c r="G21">
-        <v>0.1849960028160749</v>
-      </c>
-      <c r="H21">
-        <v>0.4284262489470226</v>
+        <v>-0.1715737510529774</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1084,31 +934,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.1407247831972852</v>
       </c>
       <c r="C22">
-        <v>-0.0674695575379957</v>
+        <v>-0.3268548824238646</v>
       </c>
       <c r="D22">
-        <v>-0.08652139354498845</v>
+        <v>0.09711198871672888</v>
       </c>
       <c r="E22">
-        <v>0.2485220520954066</v>
+        <v>0.1639792134742506</v>
       </c>
       <c r="F22">
-        <v>0.4465452528394972</v>
+        <v>-0.1534547471605028</v>
       </c>
       <c r="G22">
-        <v>0.3265063981828029</v>
+        <v>-0.7935530525687401</v>
       </c>
       <c r="H22">
-        <v>-0.06684241241324278</v>
+        <v>0.6331575875867572</v>
       </c>
       <c r="I22">
-        <v>0.2688669600921704</v>
+        <v>1.006015811313147</v>
       </c>
       <c r="J22">
-        <v>0.3484821142006353</v>
+        <v>-0.1648898980655526</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1116,28 +966,28 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.2593853248858689</v>
       </c>
       <c r="C23">
-        <v>-0.04891461247832111</v>
+        <v>0.1347187697833962</v>
       </c>
       <c r="D23">
-        <v>0.1875822870468929</v>
+        <v>0.1030394484257369</v>
       </c>
       <c r="E23">
-        <v>0.4102027492138313</v>
+        <v>-0.1897972507861687</v>
       </c>
       <c r="F23">
-        <v>0.3583917340434987</v>
+        <v>-0.7616677167080442</v>
       </c>
       <c r="G23">
-        <v>-0.06885454045530548</v>
+        <v>0.6311454595446945</v>
       </c>
       <c r="H23">
-        <v>0.28166074818116</v>
+        <v>1.018809599402137</v>
       </c>
       <c r="I23">
-        <v>0.35978734006938</v>
+        <v>-0.1535846721968078</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1145,25 +995,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>0.1836333822617173</v>
       </c>
       <c r="C24">
-        <v>0.06824331800024991</v>
+        <v>-0.01629952062090609</v>
       </c>
       <c r="D24">
-        <v>0.353639671893247</v>
+        <v>-0.2463603281067531</v>
       </c>
       <c r="E24">
-        <v>0.2754460362191013</v>
+        <v>-0.8446134145324417</v>
       </c>
       <c r="F24">
-        <v>-0.1085161893605215</v>
+        <v>0.5914838106394784</v>
       </c>
       <c r="G24">
-        <v>0.2333172058364208</v>
+        <v>0.9704660570573975</v>
       </c>
       <c r="H24">
-        <v>0.3113986749876114</v>
+        <v>-0.2019733372785765</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1171,34 +1021,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>-0.084542838621156</v>
       </c>
       <c r="C25">
-        <v>0.3340979415226784</v>
+        <v>-0.2659020584773217</v>
       </c>
       <c r="D25">
-        <v>0.2764639437495465</v>
+        <v>-0.8435955070019964</v>
       </c>
       <c r="E25">
-        <v>-0.09481809377852798</v>
+        <v>0.6051819062214719</v>
       </c>
       <c r="F25">
-        <v>0.2420827250818804</v>
+        <v>0.9792315763028571</v>
       </c>
       <c r="G25">
-        <v>0.2770904160779051</v>
+        <v>-0.2362815961882827</v>
       </c>
       <c r="H25">
-        <v>-0.5725053735585637</v>
+        <v>0.8744571022707562</v>
       </c>
       <c r="I25">
-        <v>-1.107131856755202</v>
+        <v>-0.3071318567552024</v>
       </c>
       <c r="J25">
-        <v>0.418878587985372</v>
+        <v>-0.3251785344076152</v>
       </c>
       <c r="K25">
-        <v>0.71364393050403</v>
+        <v>1.988049410057147</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1206,31 +1056,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="C26">
-        <v>0.02005945075154292</v>
+        <v>-1.1</v>
       </c>
       <c r="D26">
+        <v>0.5</v>
+      </c>
+      <c r="E26">
+        <v>0.9</v>
+      </c>
+      <c r="F26">
         <v>-0.2</v>
       </c>
-      <c r="E26">
-        <v>0.1628511487790233</v>
-      </c>
-      <c r="F26">
-        <v>0.3133720122661878</v>
-      </c>
       <c r="G26">
-        <v>-0.5469624758293199</v>
+        <v>0.9</v>
       </c>
       <c r="H26">
-        <v>-1.1</v>
+        <v>-0.3</v>
       </c>
       <c r="I26">
-        <v>0.4440571223929872</v>
+        <v>-0.3</v>
       </c>
       <c r="J26">
-        <v>0.7255945204468831</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1238,28 +1088,28 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>-1.120059450751543</v>
       </c>
       <c r="C27">
-        <v>-0.1913480750936949</v>
+        <v>0.5086519249063051</v>
       </c>
       <c r="D27">
-        <v>0.231738548566624</v>
+        <v>0.9688873997876007</v>
       </c>
       <c r="E27">
-        <v>0.3152311698238424</v>
+        <v>-0.1981408424423455</v>
       </c>
       <c r="F27">
-        <v>-0.5419341804323267</v>
+        <v>0.9050282953969933</v>
       </c>
       <c r="G27">
-        <v>-1.071142013405418</v>
+        <v>-0.2711420134054183</v>
       </c>
       <c r="H27">
-        <v>0.4590072114992211</v>
+        <v>-0.2850499108937661</v>
       </c>
       <c r="I27">
-        <v>0.7595469204598929</v>
+        <v>2.03395240001301</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1267,25 +1117,25 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="C28">
-        <v>0.06285114877902331</v>
+        <v>0.8</v>
       </c>
       <c r="D28">
-        <v>0.3133720122661878</v>
+        <v>-0.2</v>
       </c>
       <c r="E28">
-        <v>-0.5469624758293199</v>
+        <v>0.9</v>
       </c>
       <c r="F28">
-        <v>-1.1</v>
+        <v>-0.3</v>
       </c>
       <c r="G28">
-        <v>0.4440571223929872</v>
+        <v>-0.3</v>
       </c>
       <c r="H28">
-        <v>0.7255945204468831</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1293,34 +1143,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>0.7371488512209767</v>
       </c>
       <c r="C29">
-        <v>0.1748212399640226</v>
+        <v>-0.3385507723021652</v>
       </c>
       <c r="D29">
-        <v>-0.6129040166874797</v>
+        <v>0.8340584591418402</v>
       </c>
       <c r="E29">
-        <v>-1.107713403081714</v>
+        <v>-0.3077134030817138</v>
       </c>
       <c r="F29">
-        <v>0.4332363045658103</v>
+        <v>-0.3108208178271769</v>
       </c>
       <c r="G29">
-        <v>0.7015288155307609</v>
+        <v>1.975934295083878</v>
       </c>
       <c r="H29">
-        <v>0.5144563933697784</v>
+        <v>-1.414809667530936</v>
       </c>
       <c r="I29">
-        <v>0.1819205550972816</v>
+        <v>-1.373158140570279</v>
       </c>
       <c r="J29">
-        <v>2.180923509219785</v>
+        <v>-0.08740722453981667</v>
       </c>
       <c r="K29">
-        <v>0.07189752723947837</v>
+        <v>0.1320705776033355</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1328,31 +1178,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>-0.5133720122661878</v>
       </c>
       <c r="C30">
-        <v>-0.6176269314135361</v>
+        <v>0.8293355444157838</v>
       </c>
       <c r="D30">
-        <v>-1.137894636226688</v>
+        <v>-0.3378946362266884</v>
       </c>
       <c r="E30">
-        <v>0.4424525473761763</v>
+        <v>-0.3016045750168109</v>
       </c>
       <c r="F30">
-        <v>0.7186429250517539</v>
+        <v>1.993048404604871</v>
       </c>
       <c r="G30">
-        <v>0.479824397577425</v>
+        <v>-1.449441663323289</v>
       </c>
       <c r="H30">
-        <v>0.1278987814119986</v>
+        <v>-1.427179914255562</v>
       </c>
       <c r="I30">
-        <v>2.160064450830469</v>
+        <v>-0.1082662829291336</v>
       </c>
       <c r="J30">
-        <v>0.008877368261288578</v>
+        <v>0.06905041862514572</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1360,28 +1210,28 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1.44696247582932</v>
       </c>
       <c r="C31">
-        <v>-1.068043585214661</v>
+        <v>-0.2680435852146611</v>
       </c>
       <c r="D31">
-        <v>0.407150206616629</v>
+        <v>-0.3369069157763582</v>
       </c>
       <c r="E31">
-        <v>0.6939878662358769</v>
+        <v>1.968393345788994</v>
       </c>
       <c r="F31">
-        <v>0.6074058045699003</v>
+        <v>-1.321860256330814</v>
       </c>
       <c r="G31">
-        <v>0.152820595991066</v>
+        <v>-1.402258099676494</v>
       </c>
       <c r="H31">
-        <v>2.16474185548081</v>
+        <v>-0.1035888782787926</v>
       </c>
       <c r="I31">
-        <v>0.0126353064493884</v>
+        <v>0.07280835681324553</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1389,25 +1239,25 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C32">
-        <v>-0.1559428776070128</v>
+        <v>-0.8999999999999999</v>
       </c>
       <c r="D32">
-        <v>-0.2744054795531169</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>0.5292660609007143</v>
+        <v>-1.4</v>
       </c>
       <c r="F32">
-        <v>0.1550786956675604</v>
+        <v>-1.4</v>
       </c>
       <c r="G32">
-        <v>2.168330733759602</v>
+        <v>-0.1</v>
       </c>
       <c r="H32">
-        <v>0.03982694963614287</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1415,34 +1265,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-0.7440571223929873</v>
       </c>
       <c r="C33">
-        <v>0.6891886349043902</v>
+        <v>1.963594114457507</v>
       </c>
       <c r="D33">
-        <v>0.5375609234220504</v>
+        <v>-1.391705137478664</v>
       </c>
       <c r="E33">
-        <v>0.1061508239093066</v>
+        <v>-1.448927871758254</v>
       </c>
       <c r="F33">
-        <v>2.122052849121248</v>
+        <v>-0.1462778846383534</v>
       </c>
       <c r="G33">
-        <v>0.02913946897933335</v>
+        <v>0.08931251934319048</v>
       </c>
       <c r="H33">
-        <v>-0.2815199851602762</v>
+        <v>-0.1145798105761539</v>
       </c>
       <c r="I33">
-        <v>-0.04695934028048562</v>
+        <v>-1.209044466214596</v>
       </c>
       <c r="J33">
-        <v>0.007843498518306867</v>
+        <v>-0.1378285842097738</v>
       </c>
       <c r="K33">
-        <v>0.4782549208877677</v>
+        <v>0.06279240834599031</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1450,31 +1300,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1.274405479553117</v>
       </c>
       <c r="C34">
-        <v>0.7362052485719131</v>
+        <v>-1.193060812328801</v>
       </c>
       <c r="D34">
-        <v>0.4794143528406756</v>
+        <v>-1.075664342826885</v>
       </c>
       <c r="E34">
-        <v>2.206958914604264</v>
+        <v>-0.06137181915533849</v>
       </c>
       <c r="F34">
-        <v>0.08779901487798308</v>
+        <v>0.1479720652418402</v>
       </c>
       <c r="G34">
-        <v>-0.2234359290348495</v>
+        <v>-0.05649575445072724</v>
       </c>
       <c r="H34">
-        <v>0.01148364133803173</v>
+        <v>-1.150601484596079</v>
       </c>
       <c r="I34">
-        <v>0.07642629384477737</v>
+        <v>-0.06924578888330335</v>
       </c>
       <c r="J34">
-        <v>0.5606508295930522</v>
+        <v>0.1451883170512749</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1482,28 +1332,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-1.929266060900714</v>
       </c>
       <c r="C35">
-        <v>-0.0948233941817023</v>
+        <v>-1.649902089849263</v>
       </c>
       <c r="D35">
-        <v>1.866343513432568</v>
+        <v>-0.401987220327034</v>
       </c>
       <c r="E35">
-        <v>-0.2037553172955958</v>
+        <v>-0.1435822669317387</v>
       </c>
       <c r="F35">
-        <v>-0.4207491988682979</v>
+        <v>-0.2538090242841756</v>
       </c>
       <c r="G35">
-        <v>-0.04368805083196345</v>
+        <v>-1.205773176766074</v>
       </c>
       <c r="H35">
-        <v>0.1192619492912515</v>
+        <v>-0.02641013343682924</v>
       </c>
       <c r="I35">
-        <v>0.565657568805304</v>
+        <v>0.1501950562635268</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1511,25 +1361,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>-1.55507869566756</v>
       </c>
       <c r="C36">
-        <v>2.387144438824178</v>
+        <v>0.1188137050645766</v>
       </c>
       <c r="D36">
-        <v>0.06492758703014939</v>
+        <v>0.1251006373940065</v>
       </c>
       <c r="E36">
-        <v>-0.2226325883367217</v>
+        <v>-0.05569241375259946</v>
       </c>
       <c r="F36">
-        <v>-0.00664059917655499</v>
+        <v>-1.168725725110665</v>
       </c>
       <c r="G36">
-        <v>0.03797122578348547</v>
+        <v>-0.1077008569445952</v>
       </c>
       <c r="H36">
-        <v>0.5168108864292356</v>
+        <v>0.1013483738874583</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1537,34 +1387,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-2.268330733759602</v>
       </c>
       <c r="C37">
-        <v>0.08227500780577801</v>
+        <v>0.1424480581696352</v>
       </c>
       <c r="D37">
-        <v>0.2767208254823111</v>
+        <v>0.4436610000664334</v>
       </c>
       <c r="E37">
-        <v>0.2847493655628676</v>
+        <v>-0.8773357603712428</v>
       </c>
       <c r="F37">
-        <v>0.2410647678996621</v>
+        <v>0.09539268517158139</v>
       </c>
       <c r="G37">
-        <v>0.5511677805935827</v>
+        <v>0.1357052680518054</v>
       </c>
       <c r="H37">
-        <v>0.1751820116376841</v>
+        <v>-0.3061782497556361</v>
       </c>
       <c r="I37">
-        <v>0.001080385331104161</v>
+        <v>-0.0137278119927412</v>
       </c>
       <c r="J37">
-        <v>-0.07660321170639539</v>
+        <v>-0.4474192021982026</v>
       </c>
       <c r="K37">
-        <v>-0.01493251367634033</v>
+        <v>0.3518520430308234</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1572,31 +1422,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>0.06017305036385714</v>
       </c>
       <c r="C38">
-        <v>-0.2364012055928628</v>
+        <v>-0.06946103100874049</v>
       </c>
       <c r="D38">
-        <v>-0.5322732049857584</v>
+        <v>-1.694358330919869</v>
       </c>
       <c r="E38">
-        <v>0.01421443562030533</v>
+        <v>-0.1314576471077754</v>
       </c>
       <c r="F38">
-        <v>0.4673347646608994</v>
+        <v>0.05187225211912209</v>
       </c>
       <c r="G38">
-        <v>0.1579844310815317</v>
+        <v>-0.3233758303117885</v>
       </c>
       <c r="H38">
-        <v>-0.02650466982131483</v>
+        <v>-0.04131286714516019</v>
       </c>
       <c r="I38">
-        <v>-0.07138753759732556</v>
+        <v>-0.4422035280891328</v>
       </c>
       <c r="J38">
-        <v>-0.009616042991912065</v>
+        <v>0.3571685137152517</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1604,28 +1454,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>0.1669401745841223</v>
       </c>
       <c r="C39">
-        <v>-0.3839447994682464</v>
+        <v>-1.546029925402357</v>
       </c>
       <c r="D39">
-        <v>0.02769875858839238</v>
+        <v>-0.1179733241396883</v>
       </c>
       <c r="E39">
-        <v>0.4763005166237275</v>
+        <v>0.0608380040819502</v>
       </c>
       <c r="F39">
-        <v>0.1341824777118102</v>
+        <v>-0.34717778368151</v>
       </c>
       <c r="G39">
-        <v>-0.03072352705093024</v>
+        <v>-0.0455317243747756</v>
       </c>
       <c r="H39">
-        <v>-0.07612424334152659</v>
+        <v>-0.4469402338333338</v>
       </c>
       <c r="I39">
-        <v>-0.01097914148175666</v>
+        <v>0.3558054152254071</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1633,25 +1483,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>-1.162085125934111</v>
       </c>
       <c r="C40">
-        <v>0.09479596492315145</v>
+        <v>-0.05087611780492927</v>
       </c>
       <c r="D40">
-        <v>0.524189995388413</v>
+        <v>0.1087274828466357</v>
       </c>
       <c r="E40">
-        <v>0.1980567796460875</v>
+        <v>-0.2833034817472327</v>
       </c>
       <c r="F40">
-        <v>-0.005646012211538541</v>
+        <v>-0.0204542095353839</v>
       </c>
       <c r="G40">
-        <v>0.01364048222612666</v>
+        <v>-0.3571755082656805</v>
       </c>
       <c r="H40">
-        <v>0.04475821559478407</v>
+        <v>0.4115427723019478</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1659,34 +1509,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-0.1456720827280807</v>
       </c>
       <c r="C41">
-        <v>0.5494502685906455</v>
+        <v>0.1339877560488681</v>
       </c>
       <c r="D41">
-        <v>0.2118664642685156</v>
+        <v>-0.2694937971248046</v>
       </c>
       <c r="E41">
-        <v>0.02075367097891151</v>
+        <v>0.005945473655066147</v>
       </c>
       <c r="F41">
-        <v>-0.05488196404198395</v>
+        <v>-0.4256979545337912</v>
       </c>
       <c r="G41">
-        <v>0.07622565655558863</v>
+        <v>0.4430102132627524</v>
       </c>
       <c r="H41">
-        <v>-0.04416268618890819</v>
+        <v>0.0558503468456337</v>
       </c>
       <c r="I41">
-        <v>0.0104543876681279</v>
+        <v>0.004328815227750915</v>
       </c>
       <c r="J41">
-        <v>-0.01962086129222604</v>
+        <v>-0.3708214880419186</v>
       </c>
       <c r="K41">
-        <v>-0.02713266060281147</v>
+        <v>-0.7793630692420719</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1694,31 +1544,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>-0.4154625125417774</v>
       </c>
       <c r="C42">
-        <v>0.2218370931176481</v>
+        <v>-0.2595231682756721</v>
       </c>
       <c r="D42">
-        <v>-0.02906622459663755</v>
+        <v>-0.04387442192048291</v>
       </c>
       <c r="E42">
-        <v>-0.01097004372187471</v>
+        <v>-0.3817860342136819</v>
       </c>
       <c r="F42">
-        <v>0.06031152095430389</v>
+        <v>0.4270960776614676</v>
       </c>
       <c r="G42">
-        <v>0.003936832057447499</v>
+        <v>0.1039498650919894</v>
       </c>
       <c r="H42">
-        <v>-0.003834574798064955</v>
+        <v>-0.009960147238441935</v>
       </c>
       <c r="I42">
-        <v>-0.04087631705502998</v>
+        <v>-0.3920769438047225</v>
       </c>
       <c r="J42">
-        <v>-0.02172807654409281</v>
+        <v>-0.7739584851833533</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1726,28 +1576,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>-0.4813602613933202</v>
       </c>
       <c r="C43">
-        <v>0.0585032086460949</v>
+        <v>0.04369501132224954</v>
       </c>
       <c r="D43">
-        <v>0.0005550354560067416</v>
+        <v>-0.3702609550358005</v>
       </c>
       <c r="E43">
-        <v>0.04494394194337972</v>
+        <v>0.4117284986505435</v>
       </c>
       <c r="F43">
-        <v>0.04170113797079587</v>
+        <v>0.1417141710053378</v>
       </c>
       <c r="G43">
-        <v>0.04850954158485873</v>
+        <v>0.04238396914448175</v>
       </c>
       <c r="H43">
-        <v>-0.007738362373048875</v>
+        <v>-0.3589389891227414</v>
       </c>
       <c r="I43">
-        <v>-0.05409651188059413</v>
+        <v>-0.8063269205198546</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1755,25 +1605,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>-0.01480819732384536</v>
       </c>
       <c r="C44">
-        <v>0.003789541287307224</v>
+        <v>-0.3670264492044999</v>
       </c>
       <c r="D44">
-        <v>-0.00347373054148286</v>
+        <v>0.3633108261656809</v>
       </c>
       <c r="E44">
-        <v>-0.02835041691356898</v>
+        <v>0.07166261612097291</v>
       </c>
       <c r="F44">
-        <v>-0.004986607559127609</v>
+        <v>-0.01111217999950459</v>
       </c>
       <c r="G44">
-        <v>-0.06637617699698267</v>
+        <v>-0.4175768037466752</v>
       </c>
       <c r="H44">
-        <v>-0.08062039332207492</v>
+        <v>-0.8328508019613353</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1781,31 +1631,31 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.3708159904918072</v>
       </c>
       <c r="C45">
-        <v>0.06298007526267603</v>
+        <v>0.4297646319698398</v>
       </c>
       <c r="D45">
-        <v>0.04255327454021141</v>
+        <v>0.1425663075747533</v>
       </c>
       <c r="E45">
-        <v>0.04222917499671798</v>
+        <v>0.036103602556341</v>
       </c>
       <c r="F45">
-        <v>-0.004006730122196024</v>
+        <v>-0.3552073568718885</v>
       </c>
       <c r="G45">
-        <v>-0.09092800609067406</v>
+        <v>-0.8431584147299345</v>
       </c>
       <c r="H45">
-        <v>-0.4936851390503395</v>
+        <v>-0.822233786207369</v>
       </c>
       <c r="I45">
-        <v>0.05154749076260959</v>
+        <v>0.9254929468686537</v>
       </c>
       <c r="J45">
-        <v>-0.01088932922742117</v>
+        <v>-0.4653982044869834</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1813,28 +1663,28 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.3667845567071638</v>
       </c>
       <c r="C46">
-        <v>0.02005516185086445</v>
+        <v>0.1200681948854063</v>
       </c>
       <c r="D46">
-        <v>0.02459284959257116</v>
+        <v>0.01846727715219418</v>
       </c>
       <c r="E46">
-        <v>-0.05416153774930264</v>
+        <v>-0.4053621644989952</v>
       </c>
       <c r="F46">
-        <v>-0.07896882065179851</v>
+        <v>-0.8311992292910589</v>
       </c>
       <c r="G46">
-        <v>-0.4692937009282815</v>
+        <v>-0.7978423480853111</v>
       </c>
       <c r="H46">
-        <v>-0.01637507371321884</v>
+        <v>0.8575703823928252</v>
       </c>
       <c r="I46">
-        <v>-0.08917651667296092</v>
+        <v>-0.5436853919325232</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1842,25 +1692,25 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.1000130330345419</v>
       </c>
       <c r="C47">
-        <v>0.04095127161037719</v>
+        <v>0.03482569917000021</v>
       </c>
       <c r="D47">
-        <v>-0.02031442426051708</v>
+        <v>-0.3715150510102097</v>
       </c>
       <c r="E47">
-        <v>-0.0237181670284593</v>
+        <v>-0.7759485756677198</v>
       </c>
       <c r="F47">
-        <v>-0.4439201102379206</v>
+        <v>-0.77246875739495</v>
       </c>
       <c r="G47">
-        <v>0.00683616391879276</v>
+        <v>0.8807816200248368</v>
       </c>
       <c r="H47">
-        <v>-0.05698574243866723</v>
+        <v>-0.5114946176982295</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1868,22 +1718,22 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>-0.006125572440376981</v>
       </c>
       <c r="C48">
-        <v>-0.02726648635994785</v>
+        <v>-0.3784671131096404</v>
       </c>
       <c r="D48">
-        <v>-0.09705848728598013</v>
+        <v>-0.8492888959252406</v>
       </c>
       <c r="E48">
-        <v>-0.5185110378627826</v>
+        <v>-0.8470596850198121</v>
       </c>
       <c r="F48">
-        <v>0.02730447573524932</v>
+        <v>0.9012499318412933</v>
       </c>
       <c r="G48">
-        <v>-0.08642389799583547</v>
+        <v>-0.5409327732553978</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1891,19 +1741,19 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.3512006267496925</v>
       </c>
       <c r="C49">
-        <v>-0.003657175278982495</v>
+        <v>-0.755887583918243</v>
       </c>
       <c r="D49">
-        <v>-0.5201483467295098</v>
+        <v>-0.8486969938865394</v>
       </c>
       <c r="E49">
-        <v>-0.01387714138865604</v>
+        <v>0.860068314717388</v>
       </c>
       <c r="F49">
-        <v>-0.02789946831158575</v>
+        <v>-0.482408343571148</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1911,16 +1761,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>-0.7522304086392605</v>
       </c>
       <c r="C50">
-        <v>-0.4246621164200655</v>
+        <v>-0.753210763577095</v>
       </c>
       <c r="D50">
-        <v>-0.007658215014352078</v>
+        <v>0.866287241091692</v>
       </c>
       <c r="E50">
-        <v>-0.08165718674177798</v>
+        <v>-0.5361660620013402</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1928,13 +1778,13 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>-0.3285486471570295</v>
       </c>
       <c r="C51">
-        <v>0.07307918902360683</v>
+        <v>0.9470246451296509</v>
       </c>
       <c r="D51">
-        <v>0.001200383875130079</v>
+        <v>-0.4533084913844322</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1942,10 +1792,10 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.873945456106044</v>
       </c>
       <c r="C52">
-        <v>-0.002961923723733446</v>
+        <v>-0.4574707989832957</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1953,7 +1803,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>-0.4545088752595623</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/INVINV/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -600,13 +600,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1.449756788728183</v>
+        <v>0.3497567887281834</v>
       </c>
       <c r="C2">
-        <v>-0.7192494049449263</v>
+        <v>-0.7696657262595076</v>
       </c>
       <c r="D2">
-        <v>0.4362921806982092</v>
+        <v>0.3807505950550737</v>
+      </c>
+      <c r="E2">
+        <v>-0.9666328478335853</v>
+      </c>
+      <c r="F2">
+        <v>-0.5637078193017908</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -614,16 +620,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-1.271819271558043</v>
+        <v>-0.1718192715580426</v>
       </c>
       <c r="C3">
-        <v>0.1594121484765254</v>
+        <v>-0.8748649840267256</v>
       </c>
       <c r="D3">
-        <v>0.4403455411096117</v>
+        <v>-0.8405878515234746</v>
       </c>
       <c r="E3">
-        <v>2.215631650619466</v>
+        <v>0.2434118196166</v>
+      </c>
+      <c r="F3">
+        <v>1.940345541109612</v>
+      </c>
+      <c r="G3">
+        <v>-1.417511332550435</v>
+      </c>
+      <c r="H3">
+        <v>1.315631650619466</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -631,13 +646,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.2777052466944516</v>
+        <v>-1.277705246694452</v>
       </c>
       <c r="C4">
-        <v>0.6154633794187413</v>
+        <v>0.4531229127782986</v>
       </c>
       <c r="D4">
-        <v>2.246817448736404</v>
+        <v>2.115463379418741</v>
+      </c>
+      <c r="E4">
+        <v>-1.312312696272611</v>
+      </c>
+      <c r="F4">
+        <v>1.346817448736404</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -645,16 +666,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-0.1491824449565908</v>
+        <v>1.350817555043409</v>
       </c>
       <c r="C5">
-        <v>1.914147763191654</v>
+        <v>-1.53143360567771</v>
       </c>
       <c r="D5">
-        <v>1.167859517124308</v>
+        <v>1.014147763191654</v>
       </c>
       <c r="E5">
-        <v>-0.2366591282222051</v>
+        <v>-1.906925139308233</v>
+      </c>
+      <c r="F5">
+        <v>-0.03214048287569256</v>
+      </c>
+      <c r="G5">
+        <v>0.2703202670388812</v>
+      </c>
+      <c r="H5">
+        <v>0.3633408717777949</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -662,13 +692,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2.382206222450365</v>
+        <v>1.482206222450365</v>
       </c>
       <c r="C6">
-        <v>1.051933765946012</v>
+        <v>-1.947229938869199</v>
       </c>
       <c r="D6">
-        <v>-0.1927936968363893</v>
+        <v>-0.1480662340539886</v>
+      </c>
+      <c r="E6">
+        <v>0.1351789573391791</v>
+      </c>
+      <c r="F6">
+        <v>0.4072063031636107</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,16 +712,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.5408651202273873</v>
+        <v>-0.6591348797726128</v>
       </c>
       <c r="C7">
-        <v>-0.2818501944989162</v>
+        <v>-0.08246745685415713</v>
       </c>
       <c r="D7">
-        <v>0.5876390376955182</v>
+        <v>0.3181498055010838</v>
       </c>
       <c r="E7">
-        <v>0.486319785985172</v>
+        <v>0.5084761866134877</v>
+      </c>
+      <c r="F7">
+        <v>-0.2123609623044819</v>
+      </c>
+      <c r="G7">
+        <v>0.507459935297861</v>
+      </c>
+      <c r="H7">
+        <v>0.086319785985172</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,13 +738,19 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C8">
         <v>0.4</v>
       </c>
       <c r="D8">
+        <v>-0.4</v>
+      </c>
+      <c r="E8">
         <v>0.3</v>
+      </c>
+      <c r="F8">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -707,16 +758,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.3232985375912231</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0.4</v>
+      </c>
+      <c r="F9">
+        <v>0.1</v>
+      </c>
+      <c r="G9">
+        <v>0.3</v>
+      </c>
+      <c r="H9">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -724,13 +784,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="C10">
         <v>0.5</v>
       </c>
       <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10">
         <v>0.09999999999999998</v>
+      </c>
+      <c r="F10">
+        <v>-0.6000000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -738,16 +804,25 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.2</v>
+      </c>
+      <c r="D11">
+        <v>-0.4</v>
+      </c>
+      <c r="E11">
+        <v>0.2</v>
+      </c>
+      <c r="F11">
         <v>0.4</v>
       </c>
-      <c r="C11">
-        <v>0.3</v>
-      </c>
-      <c r="D11">
+      <c r="G11">
+        <v>-0.2</v>
+      </c>
+      <c r="H11">
         <v>0.2</v>
-      </c>
-      <c r="E11">
-        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -755,13 +830,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="C12">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D12">
         <v>0.4</v>
+      </c>
+      <c r="E12">
+        <v>-0.2</v>
+      </c>
+      <c r="F12">
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -769,16 +850,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
-        <v>0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="D13">
-        <v>-0.6000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+      <c r="H13">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -786,13 +876,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>-0.6000000000000001</v>
+        <v>-0.7000000000000001</v>
       </c>
       <c r="D14">
         <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -800,16 +896,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.6276883141224305</v>
+        <v>-0.02768831412243042</v>
       </c>
       <c r="C15">
-        <v>-0.05315388771215254</v>
+        <v>0.436321645722114</v>
       </c>
       <c r="D15">
-        <v>-0.3731887158325607</v>
+        <v>-0.3531538877121526</v>
       </c>
       <c r="E15">
-        <v>0.2771469842561752</v>
+        <v>0.323065741326105</v>
+      </c>
+      <c r="F15">
+        <v>0.3268112841674393</v>
+      </c>
+      <c r="G15">
+        <v>-0.2448591690147763</v>
+      </c>
+      <c r="H15">
+        <v>-0.1228530157438248</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -817,13 +922,19 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.01495703859661922</v>
+        <v>-0.3149570385966192</v>
       </c>
       <c r="C16">
-        <v>-0.4031430069794588</v>
+        <v>0.3003037193523987</v>
       </c>
       <c r="D16">
-        <v>0.3076710899981794</v>
+        <v>0.2968569930205412</v>
+      </c>
+      <c r="E16">
+        <v>-0.2142071410006554</v>
+      </c>
+      <c r="F16">
+        <v>-0.09232891000182059</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -831,16 +942,25 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.4180111434533774</v>
+        <v>0.2819888565466226</v>
       </c>
       <c r="C17">
-        <v>0.1980322256704707</v>
+        <v>-0.1617355749583468</v>
       </c>
       <c r="D17">
-        <v>-0.08372010034262449</v>
+        <v>-0.2019677743295293</v>
       </c>
       <c r="E17">
-        <v>0.03808599403574435</v>
+        <v>-0.144203991088759</v>
+      </c>
+      <c r="F17">
+        <v>0.2162798996573755</v>
+      </c>
+      <c r="G17">
+        <v>-0.01836308753882432</v>
+      </c>
+      <c r="H17">
+        <v>-0.3619140059642557</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -848,19 +968,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.2776760855350322</v>
+        <v>-0.1223239144649678</v>
       </c>
       <c r="C18">
-        <v>-0.1963071042561338</v>
+        <v>-0.1620840629262263</v>
       </c>
       <c r="D18">
-        <v>-0.03047052651039523</v>
+        <v>0.1036928957438663</v>
       </c>
       <c r="E18">
-        <v>-0.4183496785417583</v>
+        <v>-0.1212723864535662</v>
       </c>
       <c r="F18">
-        <v>-0.1791466588207064</v>
+        <v>-0.4304705265103952</v>
+      </c>
+      <c r="G18">
+        <v>0.3057999376265775</v>
+      </c>
+      <c r="H18">
+        <v>-0.2183496785417583</v>
+      </c>
+      <c r="I18">
+        <v>-0.4147697123322491</v>
+      </c>
+      <c r="J18">
+        <v>0.02085334117929367</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -868,16 +1000,25 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.0930312355107836</v>
+        <v>0.2069687644892164</v>
       </c>
       <c r="C19">
-        <v>-0.04137894554115303</v>
+        <v>-0.121948034731228</v>
       </c>
       <c r="D19">
-        <v>-0.3445743371771642</v>
+        <v>-0.441378945541153</v>
       </c>
       <c r="E19">
-        <v>-0.162111992026178</v>
+        <v>0.3524237352340155</v>
+      </c>
+      <c r="F19">
+        <v>-0.1445743371771642</v>
+      </c>
+      <c r="G19">
+        <v>-0.3653638300524744</v>
+      </c>
+      <c r="H19">
+        <v>0.03788800797382201</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -885,25 +1026,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.0361595126957486</v>
+        <v>-0.4361595126957486</v>
       </c>
       <c r="C20">
-        <v>-0.4208332754960262</v>
+        <v>0.3142668202585364</v>
       </c>
       <c r="D20">
-        <v>-0.1912883860639721</v>
+        <v>-0.2208332754960262</v>
       </c>
       <c r="E20">
-        <v>-0.3461168299595988</v>
+        <v>-0.4318451884503218</v>
       </c>
       <c r="F20">
-        <v>0.07881436602961701</v>
+        <v>0.008711613936027967</v>
       </c>
       <c r="G20">
-        <v>0.0461588320391899</v>
+        <v>0.05388317004040118</v>
       </c>
       <c r="H20">
-        <v>-0.2273703513074798</v>
+        <v>-0.421185633970383</v>
+      </c>
+      <c r="I20">
+        <v>-0.75384116796081</v>
+      </c>
+      <c r="J20">
+        <v>0.5726296486925202</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -911,22 +1058,25 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.3953299317106914</v>
+        <v>-0.1953299317106914</v>
       </c>
       <c r="C21">
-        <v>-0.1203303248603388</v>
+        <v>-0.3590000740560467</v>
       </c>
       <c r="D21">
-        <v>-0.3085002376367351</v>
+        <v>0.07966967513966118</v>
       </c>
       <c r="E21">
-        <v>0.1253253215152416</v>
+        <v>0.09149976236326487</v>
       </c>
       <c r="F21">
-        <v>0.1004531641949189</v>
+        <v>-0.3746746784847584</v>
       </c>
       <c r="G21">
-        <v>-0.1715737510529774</v>
+        <v>-0.699546835805081</v>
+      </c>
+      <c r="H21">
+        <v>0.6284262489470226</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -934,31 +1084,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.1407247831972852</v>
+        <v>0.05927521680271484</v>
       </c>
       <c r="C22">
-        <v>-0.3268548824238646</v>
+        <v>0.07314511757613539</v>
       </c>
       <c r="D22">
-        <v>0.09711198871672888</v>
+        <v>-0.4028880112832712</v>
       </c>
       <c r="E22">
-        <v>0.1639792134742506</v>
+        <v>-0.6360207865257493</v>
       </c>
       <c r="F22">
-        <v>-0.1534547471605028</v>
+        <v>0.6465452528394972</v>
       </c>
       <c r="G22">
-        <v>-0.7935530525687401</v>
+        <v>0.6064469474312599</v>
       </c>
       <c r="H22">
-        <v>0.6331575875867572</v>
+        <v>-0.2668424124132427</v>
       </c>
       <c r="I22">
-        <v>1.006015811313147</v>
+        <v>0.7060158113131471</v>
       </c>
       <c r="J22">
-        <v>-0.1648898980655526</v>
+        <v>-0.5648898980655526</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -966,28 +1116,28 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.2593853248858689</v>
+        <v>0.1406146751141311</v>
       </c>
       <c r="C23">
-        <v>0.1347187697833962</v>
+        <v>-0.3652812302166038</v>
       </c>
       <c r="D23">
-        <v>0.1030394484257369</v>
+        <v>-0.6969605515742631</v>
       </c>
       <c r="E23">
-        <v>-0.1897972507861687</v>
+        <v>0.6102027492138312</v>
       </c>
       <c r="F23">
-        <v>-0.7616677167080442</v>
+        <v>0.6383322832919558</v>
       </c>
       <c r="G23">
-        <v>0.6311454595446945</v>
+        <v>-0.2688545404553055</v>
       </c>
       <c r="H23">
-        <v>1.018809599402137</v>
+        <v>0.7188095994021366</v>
       </c>
       <c r="I23">
-        <v>-0.1535846721968078</v>
+        <v>-0.5535846721968077</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -995,25 +1145,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.1836333822617173</v>
+        <v>-0.3163666177382827</v>
       </c>
       <c r="C24">
-        <v>-0.01629952062090609</v>
+        <v>-0.816299520620906</v>
       </c>
       <c r="D24">
-        <v>-0.2463603281067531</v>
+        <v>0.5536396718932469</v>
       </c>
       <c r="E24">
-        <v>-0.8446134145324417</v>
+        <v>0.5553865854675584</v>
       </c>
       <c r="F24">
-        <v>0.5914838106394784</v>
+        <v>-0.3085161893605215</v>
       </c>
       <c r="G24">
-        <v>0.9704660570573975</v>
+        <v>0.6704660570573975</v>
       </c>
       <c r="H24">
-        <v>-0.2019733372785765</v>
+        <v>-0.6019733372785765</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1021,34 +1171,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.084542838621156</v>
+        <v>-0.884542838621156</v>
       </c>
       <c r="C25">
-        <v>-0.2659020584773217</v>
+        <v>0.5340979415226783</v>
       </c>
       <c r="D25">
-        <v>-0.8435955070019964</v>
+        <v>0.5564044929980037</v>
       </c>
       <c r="E25">
-        <v>0.6051819062214719</v>
+        <v>-0.294818093778528</v>
       </c>
       <c r="F25">
-        <v>0.9792315763028571</v>
+        <v>0.679231576302857</v>
       </c>
       <c r="G25">
-        <v>-0.2362815961882827</v>
+        <v>-0.6362815961882827</v>
       </c>
       <c r="H25">
-        <v>0.8744571022707562</v>
+        <v>-0.3255428977292438</v>
       </c>
       <c r="I25">
         <v>-0.3071318567552024</v>
       </c>
       <c r="J25">
-        <v>-0.3251785344076152</v>
+        <v>0.418878587985372</v>
       </c>
       <c r="K25">
-        <v>1.988049410057147</v>
+        <v>0.71364393050403</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1056,31 +1206,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.6000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="C26">
-        <v>-1.1</v>
+        <v>0.3</v>
       </c>
       <c r="D26">
-        <v>0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="E26">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F26">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="G26">
-        <v>0.9</v>
+        <v>-0.3</v>
       </c>
       <c r="H26">
         <v>-0.3</v>
       </c>
       <c r="I26">
-        <v>-0.3</v>
+        <v>0.4440571223929872</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>0.7255945204468831</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1088,28 +1238,28 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-1.120059450751543</v>
+        <v>0.2799405492484571</v>
       </c>
       <c r="C27">
-        <v>0.5086519249063051</v>
+        <v>-0.3913480750936948</v>
       </c>
       <c r="D27">
-        <v>0.9688873997876007</v>
+        <v>0.6688873997876007</v>
       </c>
       <c r="E27">
-        <v>-0.1981408424423455</v>
+        <v>-0.5981408424423454</v>
       </c>
       <c r="F27">
-        <v>0.9050282953969933</v>
+        <v>-0.2949717046030068</v>
       </c>
       <c r="G27">
         <v>-0.2711420134054183</v>
       </c>
       <c r="H27">
-        <v>-0.2850499108937661</v>
+        <v>0.4590072114992211</v>
       </c>
       <c r="I27">
-        <v>2.03395240001301</v>
+        <v>0.7595469204598929</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1117,25 +1267,25 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0.7</v>
+        <v>-0.2</v>
       </c>
       <c r="C28">
-        <v>0.8</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D28">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="E28">
-        <v>0.9</v>
+        <v>-0.3</v>
       </c>
       <c r="F28">
         <v>-0.3</v>
       </c>
       <c r="G28">
-        <v>-0.3</v>
+        <v>0.4440571223929872</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0.7255945204468831</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1143,34 +1293,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0.7371488512209767</v>
+        <v>0.4371488512209766</v>
       </c>
       <c r="C29">
-        <v>-0.3385507723021652</v>
+        <v>-0.7385507723021651</v>
       </c>
       <c r="D29">
-        <v>0.8340584591418402</v>
+        <v>-0.3659415408581598</v>
       </c>
       <c r="E29">
         <v>-0.3077134030817138</v>
       </c>
       <c r="F29">
-        <v>-0.3108208178271769</v>
+        <v>0.4332363045658103</v>
       </c>
       <c r="G29">
-        <v>1.975934295083878</v>
+        <v>0.7015288155307609</v>
       </c>
       <c r="H29">
-        <v>-1.414809667530936</v>
+        <v>0.5144563933697784</v>
       </c>
       <c r="I29">
-        <v>-1.373158140570279</v>
+        <v>0.1819205550972816</v>
       </c>
       <c r="J29">
-        <v>-0.08740722453981667</v>
+        <v>2.180923509219785</v>
       </c>
       <c r="K29">
-        <v>0.1320705776033355</v>
+        <v>0.07189752723947837</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1178,31 +1328,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.5133720122661878</v>
+        <v>-0.9133720122661878</v>
       </c>
       <c r="C30">
-        <v>0.8293355444157838</v>
+        <v>-0.3706644555842162</v>
       </c>
       <c r="D30">
         <v>-0.3378946362266884</v>
       </c>
       <c r="E30">
-        <v>-0.3016045750168109</v>
+        <v>0.4424525473761763</v>
       </c>
       <c r="F30">
-        <v>1.993048404604871</v>
+        <v>0.7186429250517539</v>
       </c>
       <c r="G30">
-        <v>-1.449441663323289</v>
+        <v>0.479824397577425</v>
       </c>
       <c r="H30">
-        <v>-1.427179914255562</v>
+        <v>0.1278987814119986</v>
       </c>
       <c r="I30">
-        <v>-0.1082662829291336</v>
+        <v>2.160064450830469</v>
       </c>
       <c r="J30">
-        <v>0.06905041862514572</v>
+        <v>0.008877368261288578</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1210,28 +1360,28 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>1.44696247582932</v>
+        <v>0.2469624758293199</v>
       </c>
       <c r="C31">
         <v>-0.2680435852146611</v>
       </c>
       <c r="D31">
-        <v>-0.3369069157763582</v>
+        <v>0.407150206616629</v>
       </c>
       <c r="E31">
-        <v>1.968393345788994</v>
+        <v>0.6939878662358769</v>
       </c>
       <c r="F31">
-        <v>-1.321860256330814</v>
+        <v>0.6074058045699003</v>
       </c>
       <c r="G31">
-        <v>-1.402258099676494</v>
+        <v>0.152820595991066</v>
       </c>
       <c r="H31">
-        <v>-0.1035888782787926</v>
+        <v>2.16474185548081</v>
       </c>
       <c r="I31">
-        <v>0.07280835681324553</v>
+        <v>0.0126353064493884</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1242,22 +1392,22 @@
         <v>0.8</v>
       </c>
       <c r="C32">
-        <v>-0.8999999999999999</v>
+        <v>-0.1559428776070128</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>-0.2744054795531169</v>
       </c>
       <c r="E32">
-        <v>-1.4</v>
+        <v>0.5292660609007143</v>
       </c>
       <c r="F32">
-        <v>-1.4</v>
+        <v>0.1550786956675604</v>
       </c>
       <c r="G32">
-        <v>-0.1</v>
+        <v>2.168330733759602</v>
       </c>
       <c r="H32">
-        <v>0.1</v>
+        <v>0.03982694963614287</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1265,34 +1415,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.7440571223929873</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>1.963594114457507</v>
+        <v>0.6891886349043902</v>
       </c>
       <c r="D33">
-        <v>-1.391705137478664</v>
+        <v>0.5375609234220504</v>
       </c>
       <c r="E33">
-        <v>-1.448927871758254</v>
+        <v>0.1061508239093066</v>
       </c>
       <c r="F33">
-        <v>-0.1462778846383534</v>
+        <v>2.122052849121248</v>
       </c>
       <c r="G33">
-        <v>0.08931251934319048</v>
+        <v>0.02913946897933335</v>
       </c>
       <c r="H33">
-        <v>-0.1145798105761539</v>
+        <v>-0.2815199851602762</v>
       </c>
       <c r="I33">
-        <v>-1.209044466214596</v>
+        <v>-0.04695934028048562</v>
       </c>
       <c r="J33">
-        <v>-0.1378285842097738</v>
+        <v>0.007843498518306867</v>
       </c>
       <c r="K33">
-        <v>0.06279240834599031</v>
+        <v>0.4782549208877677</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1300,31 +1450,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>1.274405479553117</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>-1.193060812328801</v>
+        <v>0.7362052485719131</v>
       </c>
       <c r="D34">
-        <v>-1.075664342826885</v>
+        <v>0.4794143528406756</v>
       </c>
       <c r="E34">
-        <v>-0.06137181915533849</v>
+        <v>2.206958914604264</v>
       </c>
       <c r="F34">
-        <v>0.1479720652418402</v>
+        <v>0.08779901487798308</v>
       </c>
       <c r="G34">
-        <v>-0.05649575445072724</v>
+        <v>-0.2234359290348495</v>
       </c>
       <c r="H34">
-        <v>-1.150601484596079</v>
+        <v>0.01148364133803173</v>
       </c>
       <c r="I34">
-        <v>-0.06924578888330335</v>
+        <v>0.07642629384477737</v>
       </c>
       <c r="J34">
-        <v>0.1451883170512749</v>
+        <v>0.5606508295930522</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1332,28 +1482,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-1.929266060900714</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>-1.649902089849263</v>
+        <v>-0.0948233941817023</v>
       </c>
       <c r="D35">
-        <v>-0.401987220327034</v>
+        <v>1.866343513432568</v>
       </c>
       <c r="E35">
-        <v>-0.1435822669317387</v>
+        <v>-0.2037553172955958</v>
       </c>
       <c r="F35">
-        <v>-0.2538090242841756</v>
+        <v>-0.4207491988682979</v>
       </c>
       <c r="G35">
-        <v>-1.205773176766074</v>
+        <v>-0.04368805083196345</v>
       </c>
       <c r="H35">
-        <v>-0.02641013343682924</v>
+        <v>0.1192619492912515</v>
       </c>
       <c r="I35">
-        <v>0.1501950562635268</v>
+        <v>0.565657568805304</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1361,25 +1511,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-1.55507869566756</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>0.1188137050645766</v>
+        <v>2.387144438824178</v>
       </c>
       <c r="D36">
-        <v>0.1251006373940065</v>
+        <v>0.06492758703014939</v>
       </c>
       <c r="E36">
-        <v>-0.05569241375259946</v>
+        <v>-0.2226325883367217</v>
       </c>
       <c r="F36">
-        <v>-1.168725725110665</v>
+        <v>-0.00664059917655499</v>
       </c>
       <c r="G36">
-        <v>-0.1077008569445952</v>
+        <v>0.03797122578348547</v>
       </c>
       <c r="H36">
-        <v>0.1013483738874583</v>
+        <v>0.5168108864292356</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1387,34 +1537,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-2.268330733759602</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0.1424480581696352</v>
+        <v>0.08227500780577801</v>
       </c>
       <c r="D37">
-        <v>0.4436610000664334</v>
+        <v>0.2767208254823111</v>
       </c>
       <c r="E37">
-        <v>-0.8773357603712428</v>
+        <v>0.2847493655628676</v>
       </c>
       <c r="F37">
-        <v>0.09539268517158139</v>
+        <v>0.2410647678996621</v>
       </c>
       <c r="G37">
-        <v>0.1357052680518054</v>
+        <v>0.5511677805935827</v>
       </c>
       <c r="H37">
-        <v>-0.3061782497556361</v>
+        <v>0.1751820116376841</v>
       </c>
       <c r="I37">
-        <v>-0.0137278119927412</v>
+        <v>0.001080385331104161</v>
       </c>
       <c r="J37">
-        <v>-0.4474192021982026</v>
+        <v>-0.07660321170639539</v>
       </c>
       <c r="K37">
-        <v>0.3518520430308234</v>
+        <v>-0.01493251367634033</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1422,31 +1572,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.06017305036385714</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>-0.06946103100874049</v>
+        <v>-0.2364012055928628</v>
       </c>
       <c r="D38">
-        <v>-1.694358330919869</v>
+        <v>-0.5322732049857584</v>
       </c>
       <c r="E38">
-        <v>-0.1314576471077754</v>
+        <v>0.01421443562030533</v>
       </c>
       <c r="F38">
-        <v>0.05187225211912209</v>
+        <v>0.4673347646608994</v>
       </c>
       <c r="G38">
-        <v>-0.3233758303117885</v>
+        <v>0.1579844310815317</v>
       </c>
       <c r="H38">
-        <v>-0.04131286714516019</v>
+        <v>-0.02650466982131483</v>
       </c>
       <c r="I38">
-        <v>-0.4422035280891328</v>
+        <v>-0.07138753759732556</v>
       </c>
       <c r="J38">
-        <v>0.3571685137152517</v>
+        <v>-0.009616042991912065</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1454,28 +1604,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.1669401745841223</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>-1.546029925402357</v>
+        <v>-0.3839447994682464</v>
       </c>
       <c r="D39">
-        <v>-0.1179733241396883</v>
+        <v>0.02769875858839238</v>
       </c>
       <c r="E39">
-        <v>0.0608380040819502</v>
+        <v>0.4763005166237275</v>
       </c>
       <c r="F39">
-        <v>-0.34717778368151</v>
+        <v>0.1341824777118102</v>
       </c>
       <c r="G39">
-        <v>-0.0455317243747756</v>
+        <v>-0.03072352705093024</v>
       </c>
       <c r="H39">
-        <v>-0.4469402338333338</v>
+        <v>-0.07612424334152659</v>
       </c>
       <c r="I39">
-        <v>0.3558054152254071</v>
+        <v>-0.01097914148175666</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1483,25 +1633,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-1.162085125934111</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>-0.05087611780492927</v>
+        <v>0.09479596492315145</v>
       </c>
       <c r="D40">
-        <v>0.1087274828466357</v>
+        <v>0.524189995388413</v>
       </c>
       <c r="E40">
-        <v>-0.2833034817472327</v>
+        <v>0.1980567796460875</v>
       </c>
       <c r="F40">
-        <v>-0.0204542095353839</v>
+        <v>-0.005646012211538541</v>
       </c>
       <c r="G40">
-        <v>-0.3571755082656805</v>
+        <v>0.01364048222612666</v>
       </c>
       <c r="H40">
-        <v>0.4115427723019478</v>
+        <v>0.04475821559478407</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1509,34 +1659,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.1456720827280807</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0.1339877560488681</v>
+        <v>0.5494502685906455</v>
       </c>
       <c r="D41">
-        <v>-0.2694937971248046</v>
+        <v>0.2118664642685156</v>
       </c>
       <c r="E41">
-        <v>0.005945473655066147</v>
+        <v>0.02075367097891151</v>
       </c>
       <c r="F41">
-        <v>-0.4256979545337912</v>
+        <v>-0.05488196404198395</v>
       </c>
       <c r="G41">
-        <v>0.4430102132627524</v>
+        <v>0.07622565655558863</v>
       </c>
       <c r="H41">
-        <v>0.0558503468456337</v>
+        <v>-0.04416268618890819</v>
       </c>
       <c r="I41">
-        <v>0.004328815227750915</v>
+        <v>0.0104543876681279</v>
       </c>
       <c r="J41">
-        <v>-0.3708214880419186</v>
+        <v>-0.01962086129222604</v>
       </c>
       <c r="K41">
-        <v>-0.7793630692420719</v>
+        <v>-0.02713266060281147</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1544,31 +1694,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>-0.4154625125417774</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>-0.2595231682756721</v>
+        <v>0.2218370931176481</v>
       </c>
       <c r="D42">
-        <v>-0.04387442192048291</v>
+        <v>-0.02906622459663755</v>
       </c>
       <c r="E42">
-        <v>-0.3817860342136819</v>
+        <v>-0.01097004372187471</v>
       </c>
       <c r="F42">
-        <v>0.4270960776614676</v>
+        <v>0.06031152095430389</v>
       </c>
       <c r="G42">
-        <v>0.1039498650919894</v>
+        <v>0.003936832057447499</v>
       </c>
       <c r="H42">
-        <v>-0.009960147238441935</v>
+        <v>-0.003834574798064955</v>
       </c>
       <c r="I42">
-        <v>-0.3920769438047225</v>
+        <v>-0.04087631705502998</v>
       </c>
       <c r="J42">
-        <v>-0.7739584851833533</v>
+        <v>-0.02172807654409281</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1576,28 +1726,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.4813602613933202</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0.04369501132224954</v>
+        <v>0.0585032086460949</v>
       </c>
       <c r="D43">
-        <v>-0.3702609550358005</v>
+        <v>0.0005550354560067416</v>
       </c>
       <c r="E43">
-        <v>0.4117284986505435</v>
+        <v>0.04494394194337972</v>
       </c>
       <c r="F43">
-        <v>0.1417141710053378</v>
+        <v>0.04170113797079587</v>
       </c>
       <c r="G43">
-        <v>0.04238396914448175</v>
+        <v>0.04850954158485873</v>
       </c>
       <c r="H43">
-        <v>-0.3589389891227414</v>
+        <v>-0.007738362373048875</v>
       </c>
       <c r="I43">
-        <v>-0.8063269205198546</v>
+        <v>-0.05409651188059413</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1605,25 +1755,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.01480819732384536</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>-0.3670264492044999</v>
+        <v>0.003789541287307224</v>
       </c>
       <c r="D44">
-        <v>0.3633108261656809</v>
+        <v>-0.00347373054148286</v>
       </c>
       <c r="E44">
-        <v>0.07166261612097291</v>
+        <v>-0.02835041691356898</v>
       </c>
       <c r="F44">
-        <v>-0.01111217999950459</v>
+        <v>-0.004986607559127609</v>
       </c>
       <c r="G44">
-        <v>-0.4175768037466752</v>
+        <v>-0.06637617699698267</v>
       </c>
       <c r="H44">
-        <v>-0.8328508019613353</v>
+        <v>-0.08062039332207492</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1631,31 +1781,31 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>-0.3708159904918072</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0.4297646319698398</v>
+        <v>0.06298007526267603</v>
       </c>
       <c r="D45">
-        <v>0.1425663075747533</v>
+        <v>0.04255327454021141</v>
       </c>
       <c r="E45">
-        <v>0.036103602556341</v>
+        <v>0.04222917499671798</v>
       </c>
       <c r="F45">
-        <v>-0.3552073568718885</v>
+        <v>-0.004006730122196024</v>
       </c>
       <c r="G45">
-        <v>-0.8431584147299345</v>
+        <v>-0.09092800609067406</v>
       </c>
       <c r="H45">
-        <v>-0.822233786207369</v>
+        <v>-0.4936851390503395</v>
       </c>
       <c r="I45">
-        <v>0.9254929468686537</v>
+        <v>0.05154749076260959</v>
       </c>
       <c r="J45">
-        <v>-0.4653982044869834</v>
+        <v>-0.01088932922742117</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1663,28 +1813,28 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0.3667845567071638</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0.1200681948854063</v>
+        <v>0.02005516185086445</v>
       </c>
       <c r="D46">
-        <v>0.01846727715219418</v>
+        <v>0.02459284959257116</v>
       </c>
       <c r="E46">
-        <v>-0.4053621644989952</v>
+        <v>-0.05416153774930264</v>
       </c>
       <c r="F46">
-        <v>-0.8311992292910589</v>
+        <v>-0.07896882065179851</v>
       </c>
       <c r="G46">
-        <v>-0.7978423480853111</v>
+        <v>-0.4692937009282815</v>
       </c>
       <c r="H46">
-        <v>0.8575703823928252</v>
+        <v>-0.01637507371321884</v>
       </c>
       <c r="I46">
-        <v>-0.5436853919325232</v>
+        <v>-0.08917651667296092</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1692,25 +1842,25 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0.1000130330345419</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0.03482569917000021</v>
+        <v>0.04095127161037719</v>
       </c>
       <c r="D47">
-        <v>-0.3715150510102097</v>
+        <v>-0.02031442426051708</v>
       </c>
       <c r="E47">
-        <v>-0.7759485756677198</v>
+        <v>-0.0237181670284593</v>
       </c>
       <c r="F47">
-        <v>-0.77246875739495</v>
+        <v>-0.4439201102379206</v>
       </c>
       <c r="G47">
-        <v>0.8807816200248368</v>
+        <v>0.00683616391879276</v>
       </c>
       <c r="H47">
-        <v>-0.5114946176982295</v>
+        <v>-0.05698574243866723</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1718,22 +1868,22 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.006125572440376981</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>-0.3784671131096404</v>
+        <v>-0.02726648635994785</v>
       </c>
       <c r="D48">
-        <v>-0.8492888959252406</v>
+        <v>-0.09705848728598013</v>
       </c>
       <c r="E48">
-        <v>-0.8470596850198121</v>
+        <v>-0.5185110378627826</v>
       </c>
       <c r="F48">
-        <v>0.9012499318412933</v>
+        <v>0.02730447573524932</v>
       </c>
       <c r="G48">
-        <v>-0.5409327732553978</v>
+        <v>-0.08642389799583547</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1741,19 +1891,19 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.3512006267496925</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>-0.755887583918243</v>
+        <v>-0.003657175278982495</v>
       </c>
       <c r="D49">
-        <v>-0.8486969938865394</v>
+        <v>-0.5201483467295098</v>
       </c>
       <c r="E49">
-        <v>0.860068314717388</v>
+        <v>-0.01387714138865604</v>
       </c>
       <c r="F49">
-        <v>-0.482408343571148</v>
+        <v>-0.02789946831158575</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1761,16 +1911,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.7522304086392605</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>-0.753210763577095</v>
+        <v>-0.4246621164200655</v>
       </c>
       <c r="D50">
-        <v>0.866287241091692</v>
+        <v>-0.007658215014352078</v>
       </c>
       <c r="E50">
-        <v>-0.5361660620013402</v>
+        <v>-0.08165718674177798</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1778,13 +1928,13 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.3285486471570295</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0.9470246451296509</v>
+        <v>0.07307918902360683</v>
       </c>
       <c r="D51">
-        <v>-0.4533084913844322</v>
+        <v>0.001200383875130079</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1792,10 +1942,10 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0.873945456106044</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>-0.4574707989832957</v>
+        <v>-0.002961923723733446</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1803,7 +1953,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.4545088752595623</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/INVINV/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -1195,10 +1195,10 @@
         <v>-0.3071318567552024</v>
       </c>
       <c r="J25">
-        <v>0.418878587985372</v>
+        <v>1.974821465592385</v>
       </c>
       <c r="K25">
-        <v>0.71364393050403</v>
+        <v>-1.411950589942853</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1227,10 +1227,10 @@
         <v>-0.3</v>
       </c>
       <c r="I26">
-        <v>0.4440571223929872</v>
+        <v>2</v>
       </c>
       <c r="J26">
-        <v>0.7255945204468831</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1256,10 +1256,10 @@
         <v>-0.2711420134054183</v>
       </c>
       <c r="H27">
-        <v>0.4590072114992211</v>
+        <v>2.014950089106234</v>
       </c>
       <c r="I27">
-        <v>0.7595469204598929</v>
+        <v>-1.36604759998699</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1282,10 +1282,10 @@
         <v>-0.3</v>
       </c>
       <c r="G28">
-        <v>0.4440571223929872</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>0.7255945204468831</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1305,22 +1305,22 @@
         <v>-0.3077134030817138</v>
       </c>
       <c r="F29">
-        <v>0.4332363045658103</v>
+        <v>1.989179182172823</v>
       </c>
       <c r="G29">
-        <v>0.7015288155307609</v>
+        <v>-1.424065704916122</v>
       </c>
       <c r="H29">
-        <v>0.5144563933697784</v>
+        <v>-1.414809667530936</v>
       </c>
       <c r="I29">
-        <v>0.1819205550972816</v>
+        <v>-0.07315814057027888</v>
       </c>
       <c r="J29">
-        <v>2.180923509219785</v>
+        <v>0.1125927754601833</v>
       </c>
       <c r="K29">
-        <v>0.07189752723947837</v>
+        <v>-0.0679294223966645</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1337,22 +1337,22 @@
         <v>-0.3378946362266884</v>
       </c>
       <c r="E30">
-        <v>0.4424525473761763</v>
+        <v>1.998395424983189</v>
       </c>
       <c r="F30">
-        <v>0.7186429250517539</v>
+        <v>-1.406951595395129</v>
       </c>
       <c r="G30">
-        <v>0.479824397577425</v>
+        <v>-1.449441663323289</v>
       </c>
       <c r="H30">
-        <v>0.1278987814119986</v>
+        <v>-0.1271799142555619</v>
       </c>
       <c r="I30">
-        <v>2.160064450830469</v>
+        <v>0.09173371707086646</v>
       </c>
       <c r="J30">
-        <v>0.008877368261288578</v>
+        <v>-0.1309495813748543</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1366,22 +1366,22 @@
         <v>-0.2680435852146611</v>
       </c>
       <c r="D31">
-        <v>0.407150206616629</v>
+        <v>1.963093084223642</v>
       </c>
       <c r="E31">
-        <v>0.6939878662358769</v>
+        <v>-1.431606654211006</v>
       </c>
       <c r="F31">
-        <v>0.6074058045699003</v>
+        <v>-1.321860256330814</v>
       </c>
       <c r="G31">
-        <v>0.152820595991066</v>
+        <v>-0.1022580996764944</v>
       </c>
       <c r="H31">
-        <v>2.16474185548081</v>
+        <v>0.09641112172120742</v>
       </c>
       <c r="I31">
-        <v>0.0126353064493884</v>
+        <v>-0.1271916431867545</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1392,22 +1392,22 @@
         <v>0.8</v>
       </c>
       <c r="C32">
-        <v>-0.1559428776070128</v>
+        <v>1.4</v>
       </c>
       <c r="D32">
-        <v>-0.2744054795531169</v>
+        <v>-2.4</v>
       </c>
       <c r="E32">
-        <v>0.5292660609007143</v>
+        <v>-1.4</v>
       </c>
       <c r="F32">
-        <v>0.1550786956675604</v>
+        <v>-0.1</v>
       </c>
       <c r="G32">
-        <v>2.168330733759602</v>
+        <v>0.1</v>
       </c>
       <c r="H32">
-        <v>0.03982694963614287</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1415,34 +1415,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1.555942877607013</v>
       </c>
       <c r="C33">
-        <v>0.6891886349043902</v>
+        <v>-1.436405885542493</v>
       </c>
       <c r="D33">
-        <v>0.5375609234220504</v>
+        <v>-1.391705137478664</v>
       </c>
       <c r="E33">
-        <v>0.1061508239093066</v>
+        <v>-0.1489278717582538</v>
       </c>
       <c r="F33">
-        <v>2.122052849121248</v>
+        <v>0.05372211536164659</v>
       </c>
       <c r="G33">
-        <v>0.02913946897933335</v>
+        <v>-0.1106874806568095</v>
       </c>
       <c r="H33">
-        <v>-0.2815199851602762</v>
+        <v>-1.214579810576154</v>
       </c>
       <c r="I33">
-        <v>-0.04695934028048562</v>
+        <v>-0.1090444662145961</v>
       </c>
       <c r="J33">
-        <v>0.007843498518306867</v>
+        <v>0.06217141579022616</v>
       </c>
       <c r="K33">
-        <v>0.4782549208877677</v>
+        <v>-0.3372075916540097</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1450,31 +1450,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>-2.125594520446883</v>
       </c>
       <c r="C34">
-        <v>0.7362052485719131</v>
+        <v>-1.193060812328801</v>
       </c>
       <c r="D34">
-        <v>0.4794143528406756</v>
+        <v>0.2243356571731152</v>
       </c>
       <c r="E34">
-        <v>2.206958914604264</v>
+        <v>0.1386281808446615</v>
       </c>
       <c r="F34">
-        <v>0.08779901487798308</v>
+        <v>-0.05202793475815978</v>
       </c>
       <c r="G34">
-        <v>-0.2234359290348495</v>
+        <v>-1.156495754450727</v>
       </c>
       <c r="H34">
-        <v>0.01148364133803173</v>
+        <v>-0.05060148459607872</v>
       </c>
       <c r="I34">
-        <v>0.07642629384477737</v>
+        <v>0.1307542111166967</v>
       </c>
       <c r="J34">
-        <v>0.5606508295930522</v>
+        <v>-0.2548116829487251</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1482,28 +1482,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-1.929266060900714</v>
       </c>
       <c r="C35">
-        <v>-0.0948233941817023</v>
+        <v>-0.3499020898492627</v>
       </c>
       <c r="D35">
-        <v>1.866343513432568</v>
+        <v>-0.201987220327034</v>
       </c>
       <c r="E35">
-        <v>-0.2037553172955958</v>
+        <v>-0.3435822669317387</v>
       </c>
       <c r="F35">
-        <v>-0.4207491988682979</v>
+        <v>-1.353809024284176</v>
       </c>
       <c r="G35">
-        <v>-0.04368805083196345</v>
+        <v>-0.1057731767660739</v>
       </c>
       <c r="H35">
-        <v>0.1192619492912515</v>
+        <v>0.1735898665631708</v>
       </c>
       <c r="I35">
-        <v>0.565657568805304</v>
+        <v>-0.2498049437364732</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1511,25 +1511,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>-0.2550786956675604</v>
       </c>
       <c r="C36">
-        <v>2.387144438824178</v>
+        <v>0.3188137050645766</v>
       </c>
       <c r="D36">
-        <v>0.06492758703014939</v>
+        <v>-0.07489936260599347</v>
       </c>
       <c r="E36">
-        <v>-0.2226325883367217</v>
+        <v>-1.155692413752599</v>
       </c>
       <c r="F36">
-        <v>-0.00664059917655499</v>
+        <v>-0.06872572511066544</v>
       </c>
       <c r="G36">
-        <v>0.03797122578348547</v>
+        <v>0.09229914305540476</v>
       </c>
       <c r="H36">
-        <v>0.5168108864292356</v>
+        <v>-0.2986516261125417</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1537,34 +1537,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-2.068330733759602</v>
       </c>
       <c r="C37">
-        <v>0.08227500780577801</v>
+        <v>-0.05755194183036486</v>
       </c>
       <c r="D37">
-        <v>0.2767208254823111</v>
+        <v>-0.6563389999335666</v>
       </c>
       <c r="E37">
-        <v>0.2847493655628676</v>
+        <v>0.2226642396287572</v>
       </c>
       <c r="F37">
-        <v>0.2410647678996621</v>
+        <v>0.2953926851715814</v>
       </c>
       <c r="G37">
-        <v>0.5511677805935827</v>
+        <v>-0.2642947319481946</v>
       </c>
       <c r="H37">
-        <v>0.1751820116376841</v>
+        <v>-0.006178249755636078</v>
       </c>
       <c r="I37">
-        <v>0.001080385331104161</v>
+        <v>-0.4137278119927412</v>
       </c>
       <c r="J37">
-        <v>-0.07660321170639539</v>
+        <v>0.3525807978017975</v>
       </c>
       <c r="K37">
-        <v>-0.01493251367634033</v>
+        <v>0.05185204303082339</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1572,31 +1572,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-0.1398269496361429</v>
       </c>
       <c r="C38">
-        <v>-0.2364012055928628</v>
+        <v>-1.169461031008741</v>
       </c>
       <c r="D38">
-        <v>-0.5322732049857584</v>
+        <v>-0.5943583309198688</v>
       </c>
       <c r="E38">
-        <v>0.01421443562030533</v>
+        <v>0.06854235289222463</v>
       </c>
       <c r="F38">
-        <v>0.4673347646608994</v>
+        <v>-0.3481277478808779</v>
       </c>
       <c r="G38">
-        <v>0.1579844310815317</v>
+        <v>-0.02337583031178853</v>
       </c>
       <c r="H38">
-        <v>-0.02650466982131483</v>
+        <v>-0.4413128671451602</v>
       </c>
       <c r="I38">
-        <v>-0.07138753759732556</v>
+        <v>0.3577964719108673</v>
       </c>
       <c r="J38">
-        <v>-0.009616042991912065</v>
+        <v>0.05716851371525165</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1604,28 +1604,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>-0.9330598254158777</v>
       </c>
       <c r="C39">
-        <v>-0.3839447994682464</v>
+        <v>-0.4460299254023569</v>
       </c>
       <c r="D39">
-        <v>0.02769875858839238</v>
+        <v>0.08202667586031168</v>
       </c>
       <c r="E39">
-        <v>0.4763005166237275</v>
+        <v>-0.3391619959180498</v>
       </c>
       <c r="F39">
-        <v>0.1341824777118102</v>
+        <v>-0.04717778368150999</v>
       </c>
       <c r="G39">
-        <v>-0.03072352705093024</v>
+        <v>-0.4455317243747756</v>
       </c>
       <c r="H39">
-        <v>-0.07612424334152659</v>
+        <v>0.3530597661666662</v>
       </c>
       <c r="I39">
-        <v>-0.01097914148175666</v>
+        <v>0.05580541522540706</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1633,25 +1633,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>-0.06208512593411045</v>
       </c>
       <c r="C40">
-        <v>0.09479596492315145</v>
+        <v>0.1491238821950708</v>
       </c>
       <c r="D40">
-        <v>0.524189995388413</v>
+        <v>-0.2912725171533643</v>
       </c>
       <c r="E40">
-        <v>0.1980567796460875</v>
+        <v>0.0166965182527673</v>
       </c>
       <c r="F40">
-        <v>-0.005646012211538541</v>
+        <v>-0.4204542095353839</v>
       </c>
       <c r="G40">
-        <v>0.01364048222612666</v>
+        <v>0.4428244917343195</v>
       </c>
       <c r="H40">
-        <v>0.04475821559478407</v>
+        <v>0.1115427723019478</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1659,34 +1659,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.0543279172719193</v>
       </c>
       <c r="C41">
-        <v>0.5494502685906455</v>
+        <v>-0.2660122439511319</v>
       </c>
       <c r="D41">
-        <v>0.2118664642685156</v>
+        <v>0.03050620287519542</v>
       </c>
       <c r="E41">
-        <v>0.02075367097891151</v>
+        <v>-0.3940545263449339</v>
       </c>
       <c r="F41">
-        <v>-0.05488196404198395</v>
+        <v>0.3743020454662089</v>
       </c>
       <c r="G41">
-        <v>0.07622565655558863</v>
+        <v>0.1430102132627523</v>
       </c>
       <c r="H41">
-        <v>-0.04416268618890819</v>
+        <v>-0.04414965315436631</v>
       </c>
       <c r="I41">
-        <v>0.0104543876681279</v>
+        <v>-0.3956711847722491</v>
       </c>
       <c r="J41">
-        <v>-0.01962086129222604</v>
+        <v>-0.7708214880419186</v>
       </c>
       <c r="K41">
-        <v>-0.02713266060281147</v>
+        <v>-0.7793630692420719</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1694,31 +1694,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>-0.8154625125417774</v>
       </c>
       <c r="C42">
-        <v>0.2218370931176481</v>
+        <v>0.04047683172432792</v>
       </c>
       <c r="D42">
-        <v>-0.02906622459663755</v>
+        <v>-0.4438744219204829</v>
       </c>
       <c r="E42">
-        <v>-0.01097004372187471</v>
+        <v>0.4182139657863181</v>
       </c>
       <c r="F42">
-        <v>0.06031152095430389</v>
+        <v>0.1270960776614676</v>
       </c>
       <c r="G42">
-        <v>0.003936832057447499</v>
+        <v>0.003949865091989385</v>
       </c>
       <c r="H42">
-        <v>-0.003834574798064955</v>
+        <v>-0.409960147238442</v>
       </c>
       <c r="I42">
-        <v>-0.04087631705502998</v>
+        <v>-0.7920769438047226</v>
       </c>
       <c r="J42">
-        <v>-0.02172807654409281</v>
+        <v>-0.7739584851833533</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1726,28 +1726,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>-0.1813602613933202</v>
       </c>
       <c r="C43">
-        <v>0.0585032086460949</v>
+        <v>-0.3563049886777505</v>
       </c>
       <c r="D43">
-        <v>0.0005550354560067416</v>
+        <v>0.4297390449641996</v>
       </c>
       <c r="E43">
-        <v>0.04494394194337972</v>
+        <v>0.1117284986505434</v>
       </c>
       <c r="F43">
-        <v>0.04170113797079587</v>
+        <v>0.04171417100533775</v>
       </c>
       <c r="G43">
-        <v>0.04850954158485873</v>
+        <v>-0.3576160308555183</v>
       </c>
       <c r="H43">
-        <v>-0.007738362373048875</v>
+        <v>-0.7589389891227414</v>
       </c>
       <c r="I43">
-        <v>-0.05409651188059413</v>
+        <v>-0.8063269205198546</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1755,25 +1755,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>-0.4148081973238454</v>
       </c>
       <c r="C44">
-        <v>0.003789541287307224</v>
+        <v>0.4329735507955001</v>
       </c>
       <c r="D44">
-        <v>-0.00347373054148286</v>
+        <v>0.06331082616568086</v>
       </c>
       <c r="E44">
-        <v>-0.02835041691356898</v>
+        <v>-0.02833738387902709</v>
       </c>
       <c r="F44">
-        <v>-0.004986607559127609</v>
+        <v>-0.4111121799995046</v>
       </c>
       <c r="G44">
-        <v>-0.06637617699698267</v>
+        <v>-0.8175768037466752</v>
       </c>
       <c r="H44">
-        <v>-0.08062039332207492</v>
+        <v>-0.8328508019613353</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1781,31 +1781,28 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.4291840095081929</v>
       </c>
       <c r="C45">
-        <v>0.06298007526267603</v>
+        <v>0.1297646319698398</v>
       </c>
       <c r="D45">
-        <v>0.04255327454021141</v>
+        <v>0.0425663075747533</v>
       </c>
       <c r="E45">
-        <v>0.04222917499671798</v>
+        <v>-0.363896397443659</v>
       </c>
       <c r="F45">
-        <v>-0.004006730122196024</v>
+        <v>-0.7552073568718886</v>
       </c>
       <c r="G45">
-        <v>-0.09092800609067406</v>
+        <v>-0.8431584147299345</v>
       </c>
       <c r="H45">
-        <v>-0.4936851390503395</v>
+        <v>0.877766213792631</v>
       </c>
       <c r="I45">
-        <v>0.05154749076260959</v>
-      </c>
-      <c r="J45">
-        <v>-0.01088932922742117</v>
+        <v>-0.4745070531313464</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1813,28 +1810,25 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>0.06678455670716371</v>
       </c>
       <c r="C46">
-        <v>0.02005516185086445</v>
+        <v>0.02006819488540634</v>
       </c>
       <c r="D46">
-        <v>0.02459284959257116</v>
+        <v>-0.3815327228478058</v>
       </c>
       <c r="E46">
-        <v>-0.05416153774930264</v>
+        <v>-0.8053621644989952</v>
       </c>
       <c r="F46">
-        <v>-0.07896882065179851</v>
+        <v>-0.8311992292910589</v>
       </c>
       <c r="G46">
-        <v>-0.4692937009282815</v>
+        <v>0.902157651914689</v>
       </c>
       <c r="H46">
-        <v>-0.01637507371321884</v>
-      </c>
-      <c r="I46">
-        <v>-0.08917651667296092</v>
+        <v>-0.5424296176071748</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1842,25 +1836,22 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1.303303454188581E-05</v>
       </c>
       <c r="C47">
-        <v>0.04095127161037719</v>
+        <v>-0.3651743008299998</v>
       </c>
       <c r="D47">
-        <v>-0.02031442426051708</v>
+        <v>-0.7715150510102097</v>
       </c>
       <c r="E47">
-        <v>-0.0237181670284593</v>
+        <v>-0.7759485756677198</v>
       </c>
       <c r="F47">
-        <v>-0.4439201102379206</v>
+        <v>0.92753124260505</v>
       </c>
       <c r="G47">
-        <v>0.00683616391879276</v>
-      </c>
-      <c r="H47">
-        <v>-0.05698574243866723</v>
+        <v>-0.5192183799751632</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1868,92 +1859,74 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>-0.406125572440377</v>
       </c>
       <c r="C48">
-        <v>-0.02726648635994785</v>
+        <v>-0.7784671131096405</v>
       </c>
       <c r="D48">
-        <v>-0.09705848728598013</v>
+        <v>-0.8492888959252406</v>
       </c>
       <c r="E48">
-        <v>-0.5185110378627826</v>
+        <v>0.852940314980188</v>
       </c>
       <c r="F48">
-        <v>0.02730447573524932</v>
-      </c>
-      <c r="G48">
-        <v>-0.08642389799583547</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.4987500681587066</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.7512006267496926</v>
       </c>
       <c r="C49">
-        <v>-0.003657175278982495</v>
+        <v>-0.755887583918243</v>
       </c>
       <c r="D49">
-        <v>-0.5201483467295098</v>
+        <v>0.8513030061134607</v>
       </c>
       <c r="E49">
-        <v>-0.01387714138865604</v>
-      </c>
-      <c r="F49">
-        <v>-0.02789946831158575</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.539931685282612</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>-0.7522304086392605</v>
       </c>
       <c r="C50">
-        <v>-0.4246621164200655</v>
+        <v>0.946789236422905</v>
       </c>
       <c r="D50">
-        <v>-0.007658215014352078</v>
-      </c>
-      <c r="E50">
-        <v>-0.08165718674177798</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.533712758908308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1.371451352842971</v>
       </c>
       <c r="C51">
-        <v>0.07307918902360683</v>
-      </c>
-      <c r="D51">
-        <v>0.001200383875130079</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.4529753548703491</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>-0.002961923723733446</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>-0.526054543893956</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
